--- a/raw_data/20200818_saline/20200818_Sensor2_Test_75.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_75.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E162E-9545-41E4-A2C0-5AC5E9BB2F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>66972.452295</v>
+        <v>66972.452294999996</v>
       </c>
       <c r="B2" s="1">
-        <v>18.603459</v>
+        <v>18.603459000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1246.160000</v>
+        <v>1246.1600000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-292.769000</v>
+        <v>-292.76900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>66982.825095</v>
+        <v>66982.825094999993</v>
       </c>
       <c r="G2" s="1">
-        <v>18.606340</v>
+        <v>18.606339999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1270.030000</v>
+        <v>1270.03</v>
       </c>
       <c r="I2" s="1">
-        <v>-254.654000</v>
+        <v>-254.654</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>66993.295186</v>
+        <v>66993.295186000003</v>
       </c>
       <c r="L2" s="1">
-        <v>18.609249</v>
+        <v>18.609248999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.130000</v>
+        <v>1304.1300000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-198.125000</v>
+        <v>-198.125</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>67003.801899</v>
+        <v>67003.801898999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.612167</v>
+        <v>18.612166999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.380000</v>
+        <v>1316.38</v>
       </c>
       <c r="S2" s="1">
-        <v>-182.028000</v>
+        <v>-182.02799999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>67014.383054</v>
+        <v>67014.383054000005</v>
       </c>
       <c r="V2" s="1">
-        <v>18.615106</v>
+        <v>18.615106000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.180000</v>
+        <v>1330.18</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.448000</v>
+        <v>-170.44800000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>67025.128912</v>
@@ -556,1223 +972,1223 @@
         <v>18.618091</v>
       </c>
       <c r="AB2" s="1">
-        <v>1348.780000</v>
+        <v>1348.78</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.486000</v>
+        <v>-169.48599999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>67035.634145</v>
+        <v>67035.634145000004</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.621009</v>
+        <v>18.621009000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.500000</v>
+        <v>1362.5</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.617000</v>
+        <v>-179.61699999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>67046.053605</v>
+        <v>67046.053604999994</v>
       </c>
       <c r="AK2" s="1">
         <v>18.623904</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.170000</v>
+        <v>1384.17</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.663000</v>
+        <v>-209.66300000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>67056.607974</v>
+        <v>67056.607973999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.626836</v>
+        <v>18.626836000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.205000</v>
+        <v>-253.20500000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>67067.624616</v>
+        <v>67067.624616000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>18.629896</v>
+        <v>18.629895999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.050000</v>
+        <v>1432.05</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.570000</v>
+        <v>-312.57</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>67079.074761</v>
+        <v>67079.074760999996</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.633076</v>
+        <v>18.633075999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.870000</v>
+        <v>1451.87</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.118000</v>
+        <v>-364.11799999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>67089.952050</v>
+        <v>67089.952050000007</v>
       </c>
       <c r="BE2" s="1">
         <v>18.636098</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.650000</v>
+        <v>1538.65</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.370000</v>
+        <v>-609.37</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>67100.707307</v>
+        <v>67100.707307000004</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.639085</v>
+        <v>18.639085000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1694.870000</v>
+        <v>1694.87</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1047.870000</v>
+        <v>-1047.8699999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>67111.422856</v>
+        <v>67111.422856000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.642062</v>
+        <v>18.642061999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1991.950000</v>
+        <v>1991.95</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1805.030000</v>
+        <v>-1805.03</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>67121.781792</v>
+        <v>67121.781791999994</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.644939</v>
+        <v>18.644939000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2378.400000</v>
+        <v>2378.4</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2675.690000</v>
+        <v>-2675.69</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>67132.520187</v>
+        <v>67132.520187000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.647922</v>
+        <v>18.647922000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2864.610000</v>
+        <v>2864.61</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3621.660000</v>
+        <v>-3621.66</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>67143.714386</v>
+        <v>67143.714386000007</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.651032</v>
+        <v>18.651032000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4280.980000</v>
+        <v>4280.9799999999996</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5879.880000</v>
+        <v>-5879.88</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>66972.803961</v>
+        <v>66972.803960999998</v>
       </c>
       <c r="B3" s="1">
-        <v>18.603557</v>
+        <v>18.603556999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1246.160000</v>
+        <v>1246.1600000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-292.443000</v>
+        <v>-292.44299999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>66983.191670</v>
+        <v>66983.19167</v>
       </c>
       <c r="G3" s="1">
-        <v>18.606442</v>
+        <v>18.606442000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.240000</v>
+        <v>1269.24</v>
       </c>
       <c r="I3" s="1">
-        <v>-254.208000</v>
+        <v>-254.208</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>66993.664168</v>
+        <v>66993.664168000003</v>
       </c>
       <c r="L3" s="1">
         <v>18.609351</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="N3" s="1">
-        <v>-198.434000</v>
+        <v>-198.434</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>67004.178859</v>
+        <v>67004.178859000007</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.612272</v>
+        <v>18.612272000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.350000</v>
+        <v>1316.35</v>
       </c>
       <c r="S3" s="1">
-        <v>-182.156000</v>
+        <v>-182.15600000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>67015.098317</v>
+        <v>67015.098316999996</v>
       </c>
       <c r="V3" s="1">
-        <v>18.615305</v>
+        <v>18.615304999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.480000</v>
+        <v>1330.48</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.237000</v>
+        <v>-170.23699999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>67025.481567</v>
+        <v>67025.481566999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.618189</v>
+        <v>18.618189000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.730000</v>
+        <v>1348.73</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.474000</v>
+        <v>-169.47399999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>67035.981345</v>
+        <v>67035.981344999993</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.621106</v>
+        <v>18.621106000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.430000</v>
+        <v>1362.43</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.605000</v>
+        <v>-179.60499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>67046.413732</v>
+        <v>67046.413732000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.624004</v>
+        <v>18.624003999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.170000</v>
+        <v>1384.17</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.673000</v>
+        <v>-209.673</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>67057.133733</v>
+        <v>67057.133732999995</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.626982</v>
+        <v>18.626982000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.220000</v>
+        <v>-253.22</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>67068.320707</v>
+        <v>67068.320707000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.630089</v>
+        <v>18.630089000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.568000</v>
+        <v>-312.56799999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>67079.490935</v>
+        <v>67079.490934999994</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.633192</v>
+        <v>18.633192000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.870000</v>
+        <v>1451.87</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.144000</v>
+        <v>-364.14400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>67090.379577</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.636217</v>
+        <v>18.636216999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.650000</v>
+        <v>1538.65</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.406000</v>
+        <v>-609.40599999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>67101.084395</v>
+        <v>67101.084394999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.639190</v>
+        <v>18.639189999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1694.980000</v>
+        <v>1694.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1048.050000</v>
+        <v>-1048.05</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>67111.864813</v>
+        <v>67111.864812999993</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.642185</v>
+        <v>18.642185000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1991.860000</v>
+        <v>1991.86</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1805.190000</v>
+        <v>-1805.19</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>67122.285271</v>
+        <v>67122.285271000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>18.645079</v>
+        <v>18.645078999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2378.470000</v>
+        <v>2378.4699999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2675.520000</v>
+        <v>-2675.52</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>67132.984441</v>
+        <v>67132.984440999993</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.648051</v>
+        <v>18.648050999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2864.220000</v>
+        <v>2864.22</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3621.500000</v>
+        <v>-3621.5</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>67144.007026</v>
+        <v>67144.007026000007</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.651113</v>
+        <v>18.651112999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4263.950000</v>
+        <v>4263.95</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5878.340000</v>
+        <v>-5878.34</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>66973.143685</v>
+        <v>66973.143685000003</v>
       </c>
       <c r="B4" s="1">
-        <v>18.603651</v>
+        <v>18.603650999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1246.320000</v>
+        <v>1246.32</v>
       </c>
       <c r="D4" s="1">
-        <v>-292.569000</v>
+        <v>-292.56900000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>66983.533880</v>
+        <v>66983.533880000003</v>
       </c>
       <c r="G4" s="1">
-        <v>18.606537</v>
+        <v>18.606536999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.240000</v>
+        <v>1269.24</v>
       </c>
       <c r="I4" s="1">
-        <v>-254.471000</v>
+        <v>-254.471</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>66994.359064</v>
+        <v>66994.359064000004</v>
       </c>
       <c r="L4" s="1">
         <v>18.609544</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.160000</v>
+        <v>1304.1600000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-198.134000</v>
+        <v>-198.13399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>67004.875274</v>
+        <v>67004.875274000005</v>
       </c>
       <c r="Q4" s="1">
         <v>18.612465</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.280000</v>
+        <v>1316.28</v>
       </c>
       <c r="S4" s="1">
-        <v>-182.139000</v>
+        <v>-182.13900000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>67015.442013</v>
+        <v>67015.442013000007</v>
       </c>
       <c r="V4" s="1">
-        <v>18.615401</v>
+        <v>18.615400999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.270000</v>
+        <v>1330.27</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.186000</v>
+        <v>-170.18600000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>67025.831214</v>
+        <v>67025.831214000005</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.618286</v>
+        <v>18.618286000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1348.710000</v>
+        <v>1348.71</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.489000</v>
+        <v>-169.489</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>67036.331556</v>
+        <v>67036.331556000005</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.621203</v>
+        <v>18.621203000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.400000</v>
+        <v>1362.4</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.587000</v>
+        <v>-179.58699999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>67047.081316</v>
+        <v>67047.081315999996</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.624189</v>
+        <v>18.624189000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.643000</v>
+        <v>-209.643</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>67057.648581</v>
+        <v>67057.648581000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.627125</v>
+        <v>18.627124999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.165000</v>
+        <v>-253.16499999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>67068.732710</v>
+        <v>67068.732709999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.630204</v>
+        <v>18.630203999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.050000</v>
+        <v>1432.05</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.614000</v>
+        <v>-312.61399999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>67079.848054</v>
+        <v>67079.848054000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>18.633291</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.138000</v>
+        <v>-364.13799999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>67090.741160</v>
+        <v>67090.741160000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.636317</v>
+        <v>18.636316999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.660000</v>
+        <v>1538.66</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.358000</v>
+        <v>-609.35799999999995</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>67101.461195</v>
+        <v>67101.461194999996</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.639295</v>
+        <v>18.639295000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1694.870000</v>
+        <v>1694.87</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1048.000000</v>
+        <v>-1048</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>67112.287900</v>
+        <v>67112.287899999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.642302</v>
+        <v>18.642302000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1991.680000</v>
+        <v>1991.68</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1805.200000</v>
+        <v>-1805.2</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>67122.717742</v>
+        <v>67122.717741999993</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.645199</v>
+        <v>18.645199000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2378.000000</v>
+        <v>2378</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2675.240000</v>
+        <v>-2675.24</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>67133.430832</v>
+        <v>67133.430831999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.648175</v>
+        <v>18.648174999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2863.660000</v>
+        <v>2863.66</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3622.030000</v>
+        <v>-3622.03</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>67144.526870</v>
+        <v>67144.526870000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.651257</v>
+        <v>18.651257000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4261.950000</v>
+        <v>4261.95</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5889.430000</v>
+        <v>-5889.43</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>66973.824691</v>
+        <v>66973.824691000002</v>
       </c>
       <c r="B5" s="1">
-        <v>18.603840</v>
+        <v>18.603840000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1246.030000</v>
+        <v>1246.03</v>
       </c>
       <c r="D5" s="1">
-        <v>-292.519000</v>
+        <v>-292.51900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>66984.224309</v>
+        <v>66984.224308999997</v>
       </c>
       <c r="G5" s="1">
-        <v>18.606729</v>
+        <v>18.606729000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.970000</v>
+        <v>1269.97</v>
       </c>
       <c r="I5" s="1">
-        <v>-253.482000</v>
+        <v>-253.482</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>66994.705304</v>
+        <v>66994.705304000003</v>
       </c>
       <c r="L5" s="1">
-        <v>18.609640</v>
+        <v>18.609639999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.180000</v>
+        <v>1304.18</v>
       </c>
       <c r="N5" s="1">
-        <v>-198.440000</v>
+        <v>-198.44</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>67005.224464</v>
+        <v>67005.224463999999</v>
       </c>
       <c r="Q5" s="1">
         <v>18.612562</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.220000</v>
+        <v>1316.22</v>
       </c>
       <c r="S5" s="1">
-        <v>-182.108000</v>
+        <v>-182.108</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>67015.783755</v>
+        <v>67015.783754999997</v>
       </c>
       <c r="V5" s="1">
-        <v>18.615495</v>
+        <v>18.615494999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.090000</v>
+        <v>1330.09</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.236000</v>
+        <v>-170.23599999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>67026.488448</v>
+        <v>67026.488448000004</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.618469</v>
+        <v>18.618469000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1348.730000</v>
+        <v>1348.73</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.467000</v>
+        <v>-169.46700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>67036.981279</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.621384</v>
+        <v>18.621383999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.530000</v>
+        <v>1362.53</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.626000</v>
+        <v>-179.626</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>67047.457778</v>
+        <v>67047.457777999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.624294</v>
+        <v>18.624293999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.616000</v>
+        <v>-209.61600000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>67058.074149</v>
+        <v>67058.074148999993</v>
       </c>
       <c r="AP5" s="1">
         <v>18.627243</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.184000</v>
+        <v>-253.184</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>67069.100245</v>
+        <v>67069.100244999994</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.630306</v>
+        <v>18.630306000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.562000</v>
+        <v>-312.56200000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>67080.207127</v>
+        <v>67080.207127000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>18.633391</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.870000</v>
+        <v>1451.87</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.121000</v>
+        <v>-364.12099999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>67091.101257</v>
+        <v>67091.101257000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.636417</v>
+        <v>18.636417000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.680000</v>
+        <v>1538.68</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.400000</v>
+        <v>-609.4</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>67101.881306</v>
+        <v>67101.881305999996</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.639411</v>
+        <v>18.639410999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.000000</v>
+        <v>1695</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1048.010000</v>
+        <v>-1048.01</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>67112.680699</v>
+        <v>67112.680699000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.642411</v>
+        <v>18.642410999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1991.720000</v>
+        <v>1991.72</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1805.210000</v>
+        <v>-1805.21</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>67123.146783</v>
+        <v>67123.146783000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.645319</v>
+        <v>18.645319000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2378.340000</v>
+        <v>2378.34</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2674.890000</v>
+        <v>-2674.89</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>67133.863354</v>
+        <v>67133.863354000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.648295</v>
+        <v>18.648295000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2863.570000</v>
+        <v>2863.57</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3621.810000</v>
+        <v>-3621.81</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>67145.071937</v>
+        <v>67145.071937000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.651409</v>
+        <v>18.651409000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4267.000000</v>
+        <v>4267</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5877.800000</v>
+        <v>-5877.8</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>66974.177384</v>
+        <v>66974.177383999995</v>
       </c>
       <c r="B6" s="1">
-        <v>18.603938</v>
+        <v>18.603937999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1246.350000</v>
+        <v>1246.3499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-292.592000</v>
+        <v>-292.59199999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>66984.570021</v>
+        <v>66984.570021000007</v>
       </c>
       <c r="G6" s="1">
-        <v>18.606825</v>
+        <v>18.606825000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="I6" s="1">
-        <v>-253.393000</v>
+        <v>-253.393</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>66995.049992</v>
       </c>
       <c r="L6" s="1">
-        <v>18.609736</v>
+        <v>18.609736000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="N6" s="1">
-        <v>-198.236000</v>
+        <v>-198.23599999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>67005.569643</v>
+        <v>67005.569642999995</v>
       </c>
       <c r="Q6" s="1">
         <v>18.612658</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.360000</v>
+        <v>1316.36</v>
       </c>
       <c r="S6" s="1">
-        <v>-182.019000</v>
+        <v>-182.01900000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>67016.439003</v>
+        <v>67016.439003000007</v>
       </c>
       <c r="V6" s="1">
-        <v>18.615678</v>
+        <v>18.615677999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.190000</v>
+        <v>1330.19</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.281000</v>
+        <v>-170.28100000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>67026.873806</v>
+        <v>67026.873806000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.618576</v>
+        <v>18.618576000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1348.810000</v>
+        <v>1348.81</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.615000</v>
+        <v>-169.61500000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>67037.361248</v>
+        <v>67037.361248000001</v>
       </c>
       <c r="AF6" s="1">
         <v>18.621489</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.510000</v>
+        <v>1362.51</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.610000</v>
+        <v>-179.61</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>67047.804978</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.624390</v>
+        <v>18.624389999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.210000</v>
+        <v>1384.21</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.626000</v>
+        <v>-209.626</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>67058.451639</v>
+        <v>67058.451639000006</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.627348</v>
+        <v>18.627348000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.164000</v>
+        <v>-253.16399999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>67069.460805</v>
+        <v>67069.460804999995</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.630406</v>
+        <v>18.630406000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.020000</v>
+        <v>1432.02</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.573000</v>
+        <v>-312.57299999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>67080.642119</v>
+        <v>67080.642118999996</v>
       </c>
       <c r="AZ6" s="1">
         <v>18.633512</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.890000</v>
+        <v>1451.89</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.101000</v>
+        <v>-364.101</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>67091.601223</v>
+        <v>67091.601223000005</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.636556</v>
+        <v>18.636555999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.640000</v>
+        <v>1538.64</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.345000</v>
+        <v>-609.34500000000003</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>67102.238462</v>
+        <v>67102.238461999994</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.639511</v>
+        <v>18.639510999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1694.850000</v>
+        <v>1694.85</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1048.160000</v>
+        <v>-1048.1600000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>67113.105772</v>
+        <v>67113.105771999995</v>
       </c>
       <c r="BO6" s="1">
         <v>18.642529</v>
       </c>
       <c r="BP6" s="1">
-        <v>1991.670000</v>
+        <v>1991.67</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1805.220000</v>
+        <v>-1805.22</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>67123.558991</v>
+        <v>67123.558990999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.645433</v>
+        <v>18.645433000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2378.340000</v>
+        <v>2378.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2674.670000</v>
+        <v>-2674.67</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>67134.286431</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.648413</v>
+        <v>18.648413000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2863.950000</v>
+        <v>2863.95</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3621.740000</v>
+        <v>-3621.74</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>67145.600674</v>
+        <v>67145.600674000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.651556</v>
+        <v>18.651555999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4262.710000</v>
+        <v>4262.71</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5891.720000</v>
+        <v>-5891.72</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>66974.515154</v>
+        <v>66974.515153999993</v>
       </c>
       <c r="B7" s="1">
         <v>18.604032</v>
       </c>
       <c r="C7" s="1">
-        <v>1246.230000</v>
+        <v>1246.23</v>
       </c>
       <c r="D7" s="1">
-        <v>-292.468000</v>
+        <v>-292.46800000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>66984.914246</v>
@@ -1781,1797 +2197,1797 @@
         <v>18.606921</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.840000</v>
+        <v>1269.8399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-254.787000</v>
+        <v>-254.78700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>66995.715126</v>
+        <v>66995.715125999996</v>
       </c>
       <c r="L7" s="1">
         <v>18.609921</v>
       </c>
       <c r="M7" s="1">
-        <v>1303.950000</v>
+        <v>1303.95</v>
       </c>
       <c r="N7" s="1">
-        <v>-198.211000</v>
+        <v>-198.21100000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>67006.304255</v>
+        <v>67006.304254999995</v>
       </c>
       <c r="Q7" s="1">
         <v>18.612862</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.320000</v>
+        <v>1316.32</v>
       </c>
       <c r="S7" s="1">
-        <v>-182.144000</v>
+        <v>-182.14400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>67016.814442</v>
+        <v>67016.814442000003</v>
       </c>
       <c r="V7" s="1">
-        <v>18.615782</v>
+        <v>18.615781999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.360000</v>
+        <v>1330.36</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.311000</v>
+        <v>-170.31100000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>67027.224974</v>
+        <v>67027.224973999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.618674</v>
+        <v>18.618673999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1348.740000</v>
+        <v>1348.74</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.556000</v>
+        <v>-169.55600000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>67037.704448</v>
+        <v>67037.704448000004</v>
       </c>
       <c r="AF7" s="1">
         <v>18.621585</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.520000</v>
+        <v>1362.52</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.619000</v>
+        <v>-179.619</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>67048.156642</v>
+        <v>67048.156642000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.624488</v>
+        <v>18.624487999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.200000</v>
+        <v>1384.2</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.632000</v>
+        <v>-209.63200000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>67058.862788</v>
+        <v>67058.862787999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.627462</v>
+        <v>18.627462000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.174000</v>
+        <v>-253.17400000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>67069.891364</v>
+        <v>67069.891363999996</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.630525</v>
+        <v>18.630524999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.010000</v>
+        <v>1432.01</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.608000</v>
+        <v>-312.608</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>67080.923887</v>
+        <v>67080.923886999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.633590</v>
+        <v>18.633590000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.880000</v>
+        <v>1451.88</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.076000</v>
+        <v>-364.07600000000002</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>67091.825911</v>
+        <v>67091.825911000007</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.636618</v>
+        <v>18.636617999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.620000</v>
+        <v>1538.62</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.396000</v>
+        <v>-609.39599999999996</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>67102.613899</v>
+        <v>67102.613899000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.639615</v>
+        <v>18.639614999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1694.740000</v>
+        <v>1694.74</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1047.940000</v>
+        <v>-1047.94</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>67113.503562</v>
+        <v>67113.503561999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.642640</v>
+        <v>18.64264</v>
       </c>
       <c r="BP7" s="1">
-        <v>1991.650000</v>
+        <v>1991.65</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1805.250000</v>
+        <v>-1805.25</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>67123.990973</v>
+        <v>67123.990973000007</v>
       </c>
       <c r="BT7" s="1">
         <v>18.645553</v>
       </c>
       <c r="BU7" s="1">
-        <v>2378.690000</v>
+        <v>2378.69</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2674.550000</v>
+        <v>-2674.55</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>67134.707038</v>
+        <v>67134.707037999993</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.648530</v>
+        <v>18.648530000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2863.530000</v>
+        <v>2863.53</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3620.740000</v>
+        <v>-3620.74</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>67146.121967</v>
+        <v>67146.121966999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.651701</v>
+        <v>18.651700999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4282.340000</v>
+        <v>4282.34</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5890.400000</v>
+        <v>-5890.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>66975.180753</v>
+        <v>66975.180752999993</v>
       </c>
       <c r="B8" s="1">
-        <v>18.604217</v>
+        <v>18.604216999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1246.230000</v>
+        <v>1246.23</v>
       </c>
       <c r="D8" s="1">
-        <v>-292.640000</v>
+        <v>-292.64</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>66985.582387</v>
+        <v>66985.582387000002</v>
       </c>
       <c r="G8" s="1">
-        <v>18.607106</v>
+        <v>18.607106000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-255.220000</v>
+        <v>-255.22</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>66996.089638</v>
+        <v>66996.089638000005</v>
       </c>
       <c r="L8" s="1">
         <v>18.610025</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="N8" s="1">
-        <v>-198.090000</v>
+        <v>-198.09</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>67006.618221</v>
+        <v>67006.618220999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.612950</v>
+        <v>18.612950000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.350000</v>
+        <v>1316.35</v>
       </c>
       <c r="S8" s="1">
-        <v>-182.184000</v>
+        <v>-182.184</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>67017.159163</v>
+        <v>67017.159163000004</v>
       </c>
       <c r="V8" s="1">
-        <v>18.615878</v>
+        <v>18.615877999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.530000</v>
+        <v>1330.53</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.080000</v>
+        <v>-170.08</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>67027.570189</v>
+        <v>67027.570189000005</v>
       </c>
       <c r="AA8" s="1">
         <v>18.618769</v>
       </c>
       <c r="AB8" s="1">
-        <v>1348.700000</v>
+        <v>1348.7</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.513000</v>
+        <v>-169.51300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>67038.048702</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.621680</v>
+        <v>18.621680000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.632000</v>
+        <v>-179.63200000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>67048.579763</v>
+        <v>67048.579763000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.624605</v>
+        <v>18.624604999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.667000</v>
+        <v>-209.667</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>67059.177250</v>
+        <v>67059.177249999993</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.627549</v>
+        <v>18.627548999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.188000</v>
+        <v>-253.18799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>67070.190948</v>
+        <v>67070.190948000003</v>
       </c>
       <c r="AU8" s="1">
         <v>18.630609</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.040000</v>
+        <v>1432.04</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.589000</v>
+        <v>-312.589</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>67081.286931</v>
+        <v>67081.286930999995</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.633691</v>
+        <v>18.633690999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.089000</v>
+        <v>-364.089</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>67092.186039</v>
+        <v>67092.186038999993</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.636718</v>
+        <v>18.636717999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.660000</v>
+        <v>1538.66</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.400000</v>
+        <v>-609.4</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>67102.988410</v>
+        <v>67102.988410000005</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.639719</v>
+        <v>18.639718999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1694.830000</v>
+        <v>1694.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1048.140000</v>
+        <v>-1048.1400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>67113.935615</v>
+        <v>67113.935614999995</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.642760</v>
+        <v>18.642759999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1991.770000</v>
+        <v>1991.77</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1805.090000</v>
+        <v>-1805.09</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>67124.424476</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.645673</v>
+        <v>18.645672999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2378.390000</v>
+        <v>2378.39</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2674.130000</v>
+        <v>-2674.13</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>67135.133631</v>
+        <v>67135.133631000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.648648</v>
+        <v>18.648648000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2863.000000</v>
+        <v>2863</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3621.500000</v>
+        <v>-3621.5</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>67146.659632</v>
+        <v>67146.659631999995</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.651850</v>
+        <v>18.65185</v>
       </c>
       <c r="CE8" s="1">
-        <v>4260.600000</v>
+        <v>4260.6000000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5880.240000</v>
+        <v>-5880.24</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>66975.538369</v>
+        <v>66975.538369000002</v>
       </c>
       <c r="B9" s="1">
-        <v>18.604316</v>
+        <v>18.604316000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="D9" s="1">
-        <v>-292.669000</v>
+        <v>-292.66899999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>66985.946423</v>
+        <v>66985.946423000001</v>
       </c>
       <c r="G9" s="1">
-        <v>18.607207</v>
+        <v>18.607206999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.700000</v>
+        <v>1269.7</v>
       </c>
       <c r="I9" s="1">
-        <v>-254.522000</v>
+        <v>-254.52199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>66996.430853</v>
+        <v>66996.430852999998</v>
       </c>
       <c r="L9" s="1">
-        <v>18.610120</v>
+        <v>18.610119999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.110000</v>
+        <v>1304.1099999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-198.310000</v>
+        <v>-198.31</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>67006.975801</v>
+        <v>67006.975800999993</v>
       </c>
       <c r="Q9" s="1">
         <v>18.613049</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.350000</v>
+        <v>1316.35</v>
       </c>
       <c r="S9" s="1">
-        <v>-182.148000</v>
+        <v>-182.148</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>67017.506362</v>
       </c>
       <c r="V9" s="1">
-        <v>18.615974</v>
+        <v>18.615974000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.300000</v>
+        <v>1330.3</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.370000</v>
+        <v>-170.37</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>67027.999723</v>
+        <v>67027.999723000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.618889</v>
+        <v>18.618888999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1348.760000</v>
+        <v>1348.76</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.335000</v>
+        <v>-169.33500000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>67038.469310</v>
+        <v>67038.46931</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.621797</v>
+        <v>18.621797000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.450000</v>
+        <v>1362.45</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.824000</v>
+        <v>-179.82400000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>67048.855660</v>
+        <v>67048.855660000001</v>
       </c>
       <c r="AK9" s="1">
         <v>18.624682</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.230000</v>
+        <v>1384.23</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.623000</v>
+        <v>-209.62299999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>67059.539825</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.627650</v>
+        <v>18.627649999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.179000</v>
+        <v>-253.179</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>67070.555011</v>
+        <v>67070.555011000004</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.630710</v>
+        <v>18.630710000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.010000</v>
+        <v>1432.01</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.566000</v>
+        <v>-312.56599999999997</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>67081.642090</v>
+        <v>67081.642089999994</v>
       </c>
       <c r="AZ9" s="1">
         <v>18.633789</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.870000</v>
+        <v>1451.87</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.123000</v>
+        <v>-364.12299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>67092.907226</v>
+        <v>67092.907225999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.636919</v>
+        <v>18.636918999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.640000</v>
+        <v>1538.64</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.365000</v>
+        <v>-609.36500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>67103.762632</v>
+        <v>67103.762631999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>18.639934</v>
       </c>
       <c r="BK9" s="1">
-        <v>1694.720000</v>
+        <v>1694.72</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1047.940000</v>
+        <v>-1047.94</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>67114.319017</v>
+        <v>67114.319017000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.642866</v>
+        <v>18.642866000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1991.560000</v>
+        <v>1991.56</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1805.010000</v>
+        <v>-1805.01</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>67124.828221</v>
+        <v>67124.828221000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.645786</v>
+        <v>18.645786000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2378.710000</v>
+        <v>2378.71</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2673.720000</v>
+        <v>-2673.72</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>67135.549278</v>
+        <v>67135.549278000006</v>
       </c>
       <c r="BY9" s="1">
         <v>18.648764</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2863.660000</v>
+        <v>2863.66</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3621.520000</v>
+        <v>-3621.52</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>67147.515229</v>
+        <v>67147.515228999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.652088</v>
+        <v>18.652087999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4280.180000</v>
+        <v>4280.18</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5880.910000</v>
+        <v>-5880.91</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>66975.884082</v>
+        <v>66975.884082000004</v>
       </c>
       <c r="B10" s="1">
         <v>18.604412</v>
       </c>
       <c r="C10" s="1">
-        <v>1246.150000</v>
+        <v>1246.1500000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-292.842000</v>
+        <v>-292.84199999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>66986.290644</v>
+        <v>66986.290643999993</v>
       </c>
       <c r="G10" s="1">
-        <v>18.607303</v>
+        <v>18.607303000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-255.034000</v>
+        <v>-255.03399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>66996.780038</v>
+        <v>66996.780037999997</v>
       </c>
       <c r="L10" s="1">
-        <v>18.610217</v>
+        <v>18.610216999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.410000</v>
+        <v>1304.4100000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-198.065000</v>
+        <v>-198.065</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>67007.398887</v>
+        <v>67007.398887000003</v>
       </c>
       <c r="Q10" s="1">
         <v>18.613166</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.290000</v>
+        <v>1316.29</v>
       </c>
       <c r="S10" s="1">
-        <v>-182.136000</v>
+        <v>-182.136</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>67017.941862</v>
+        <v>67017.941862000007</v>
       </c>
       <c r="V10" s="1">
-        <v>18.616095</v>
+        <v>18.616095000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.310000</v>
+        <v>1330.31</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.197000</v>
+        <v>-170.197</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>67028.281947</v>
+        <v>67028.281946999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.618967</v>
+        <v>18.618967000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1348.640000</v>
+        <v>1348.64</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.478000</v>
+        <v>-169.47800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>67038.744062</v>
+        <v>67038.744061999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.621873</v>
+        <v>18.621873000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.530000</v>
+        <v>1362.53</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.763000</v>
+        <v>-179.76300000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>67049.206671</v>
+        <v>67049.206671000007</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.624780</v>
+        <v>18.624780000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.200000</v>
+        <v>1384.2</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.653000</v>
+        <v>-209.65299999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>67059.898944</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.627750</v>
+        <v>18.627749999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.166000</v>
+        <v>-253.166</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>67070.922020</v>
+        <v>67070.922019999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.630812</v>
+        <v>18.630811999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.050000</v>
+        <v>1432.05</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.601000</v>
+        <v>-312.601</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>67082.360757</v>
+        <v>67082.360757000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>18.633989</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.880000</v>
+        <v>1451.88</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.100000</v>
+        <v>-364.1</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>67093.267285</v>
+        <v>67093.267284999994</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.637019</v>
+        <v>18.637018999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.640000</v>
+        <v>1538.64</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.334000</v>
+        <v>-609.33399999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>67104.138103</v>
+        <v>67104.138103000005</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.640038</v>
+        <v>18.640038000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1694.970000</v>
+        <v>1694.97</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1047.940000</v>
+        <v>-1047.94</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>67114.737144</v>
+        <v>67114.737143999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.642983</v>
+        <v>18.642983000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1991.660000</v>
+        <v>1991.66</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1805.140000</v>
+        <v>-1805.14</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>67125.257261</v>
+        <v>67125.257261000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.645905</v>
+        <v>18.645904999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2378.860000</v>
+        <v>2378.86</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2673.520000</v>
+        <v>-2673.52</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>67136.314085</v>
+        <v>67136.314085000005</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.648976</v>
+        <v>18.648976000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2863.340000</v>
+        <v>2863.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3620.970000</v>
+        <v>-3620.97</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>67147.739917</v>
+        <v>67147.739916999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.652150</v>
+        <v>18.652149999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4281.150000</v>
+        <v>4281.1499999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5884.280000</v>
+        <v>-5884.28</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>66976.226816</v>
+        <v>66976.226815999995</v>
       </c>
       <c r="B11" s="1">
-        <v>18.604507</v>
+        <v>18.604507000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1246.430000</v>
+        <v>1246.43</v>
       </c>
       <c r="D11" s="1">
-        <v>-292.756000</v>
+        <v>-292.75599999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>66986.637348</v>
+        <v>66986.637348000004</v>
       </c>
       <c r="G11" s="1">
-        <v>18.607399</v>
+        <v>18.607399000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-254.349000</v>
+        <v>-254.34899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>66997.207092</v>
+        <v>66997.207091999997</v>
       </c>
       <c r="L11" s="1">
-        <v>18.610335</v>
+        <v>18.610334999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="N11" s="1">
-        <v>-198.253000</v>
+        <v>-198.25299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>67007.679128</v>
+        <v>67007.679128000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.613244</v>
+        <v>18.613244000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.300000</v>
+        <v>1316.3</v>
       </c>
       <c r="S11" s="1">
-        <v>-182.086000</v>
+        <v>-182.08600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>67018.210217</v>
       </c>
       <c r="V11" s="1">
-        <v>18.616170</v>
+        <v>18.61617</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.290000</v>
+        <v>1330.29</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.200000</v>
+        <v>-170.2</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>67028.629679</v>
+        <v>67028.629679000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.619064</v>
+        <v>18.619064000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1348.750000</v>
+        <v>1348.75</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.501000</v>
+        <v>-169.501</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>67039.086303</v>
+        <v>67039.086303000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.621968</v>
+        <v>18.621967999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.520000</v>
+        <v>1362.52</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.571000</v>
+        <v>-179.571</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>67049.554864</v>
+        <v>67049.554864000005</v>
       </c>
       <c r="AK11" s="1">
         <v>18.624876</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.631000</v>
+        <v>-209.631</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>67060.618160</v>
+        <v>67060.618159999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.627949</v>
+        <v>18.627949000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.179000</v>
+        <v>-253.179</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>67071.653122</v>
+        <v>67071.653122000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.631015</v>
+        <v>18.631015000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.040000</v>
+        <v>1432.04</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.578000</v>
+        <v>-312.57799999999997</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>67082.717379</v>
+        <v>67082.717378999994</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.634088</v>
+        <v>18.634087999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.108000</v>
+        <v>-364.108</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>67093.626886</v>
+        <v>67093.626885999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.637119</v>
+        <v>18.637118999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.610000</v>
+        <v>1538.61</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.346000</v>
+        <v>-609.346</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>67104.511095</v>
+        <v>67104.511094999994</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.640142</v>
+        <v>18.640142000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1694.840000</v>
+        <v>1694.84</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1048.120000</v>
+        <v>-1048.1199999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>67115.449865</v>
+        <v>67115.449865000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.643181</v>
+        <v>18.643180999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1991.540000</v>
+        <v>1991.54</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1805.100000</v>
+        <v>-1805.1</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>67125.706138</v>
+        <v>67125.706137999994</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.646029</v>
+        <v>18.646028999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2378.970000</v>
+        <v>2378.9699999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2673.520000</v>
+        <v>-2673.52</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>67136.450972</v>
+        <v>67136.450972000006</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.649014</v>
+        <v>18.649014000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2863.050000</v>
+        <v>2863.05</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3621.360000</v>
+        <v>-3621.36</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>67148.257740</v>
+        <v>67148.257740000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.652294</v>
+        <v>18.652294000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4266.810000</v>
+        <v>4266.8100000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5875.630000</v>
+        <v>-5875.63</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>66976.647425</v>
+        <v>66976.647425000003</v>
       </c>
       <c r="B12" s="1">
-        <v>18.604624</v>
+        <v>18.604624000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.490000</v>
+        <v>1246.49</v>
       </c>
       <c r="D12" s="1">
-        <v>-292.601000</v>
+        <v>-292.601</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>66987.068867</v>
+        <v>66987.068866999994</v>
       </c>
       <c r="G12" s="1">
         <v>18.607519</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.620000</v>
+        <v>1269.6199999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-254.747000</v>
+        <v>-254.74700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>66997.487860</v>
+        <v>66997.487859999994</v>
       </c>
       <c r="L12" s="1">
-        <v>18.610413</v>
+        <v>18.610413000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.240000</v>
+        <v>1304.24</v>
       </c>
       <c r="N12" s="1">
-        <v>-198.334000</v>
+        <v>-198.334</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>67008.028347</v>
+        <v>67008.028346999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.613341</v>
+        <v>18.613340999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.350000</v>
+        <v>1316.35</v>
       </c>
       <c r="S12" s="1">
-        <v>-182.047000</v>
+        <v>-182.047</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>67018.552458</v>
+        <v>67018.552458000006</v>
       </c>
       <c r="V12" s="1">
-        <v>18.616265</v>
+        <v>18.616264999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.280000</v>
+        <v>1330.28</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.181000</v>
+        <v>-170.18100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>67028.980842</v>
+        <v>67028.980842000004</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.619161</v>
+        <v>18.619160999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1348.860000</v>
+        <v>1348.86</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.402000</v>
+        <v>-169.40199999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>67039.430028</v>
+        <v>67039.430028000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.622064</v>
+        <v>18.622064000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.520000</v>
+        <v>1362.52</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.566000</v>
+        <v>-179.566</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>67050.252239</v>
+        <v>67050.252238999994</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.625070</v>
+        <v>18.625070000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.659000</v>
+        <v>-209.65899999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>67060.978224</v>
+        <v>67060.978224000006</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.628050</v>
+        <v>18.628050000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.194000</v>
+        <v>-253.19399999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>67072.040015</v>
+        <v>67072.040015000006</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.631122</v>
+        <v>18.631122000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.587000</v>
+        <v>-312.58699999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>67083.077476</v>
+        <v>67083.077476000006</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.634188</v>
+        <v>18.634188000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.880000</v>
+        <v>1451.88</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.077000</v>
+        <v>-364.077</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>67094.300949</v>
+        <v>67094.300948999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.637306</v>
+        <v>18.637305999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.640000</v>
+        <v>1538.64</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.346000</v>
+        <v>-609.346</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>67105.196566</v>
+        <v>67105.196565999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.640332</v>
+        <v>18.640332000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1694.770000</v>
+        <v>1694.77</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1048.130000</v>
+        <v>-1048.1300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>67115.558489</v>
+        <v>67115.558489000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.643211</v>
+        <v>18.643211000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1991.540000</v>
+        <v>1991.54</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1805.070000</v>
+        <v>-1805.07</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>67126.097990</v>
+        <v>67126.097989999995</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.646138</v>
+        <v>18.646138000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2379.100000</v>
+        <v>2379.1</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2673.150000</v>
+        <v>-2673.15</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>67136.873563</v>
+        <v>67136.873563000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.649132</v>
+        <v>18.649132000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2864.060000</v>
+        <v>2864.06</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3621.470000</v>
+        <v>-3621.47</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>67148.777052</v>
+        <v>67148.777052000005</v>
       </c>
       <c r="CD12" s="1">
         <v>18.652438</v>
       </c>
       <c r="CE12" s="1">
-        <v>4258.330000</v>
+        <v>4258.33</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5890.530000</v>
+        <v>-5890.53</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>66976.926703</v>
+        <v>66976.926703000005</v>
       </c>
       <c r="B13" s="1">
         <v>18.604702</v>
       </c>
       <c r="C13" s="1">
-        <v>1246.410000</v>
+        <v>1246.4100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-292.401000</v>
+        <v>-292.40100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>66987.347121</v>
+        <v>66987.347120999999</v>
       </c>
       <c r="G13" s="1">
-        <v>18.607596</v>
+        <v>18.607596000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.190000</v>
+        <v>1269.19</v>
       </c>
       <c r="I13" s="1">
-        <v>-254.504000</v>
+        <v>-254.50399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>66997.834076</v>
+        <v>66997.834075999999</v>
       </c>
       <c r="L13" s="1">
         <v>18.610509</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="N13" s="1">
-        <v>-198.236000</v>
+        <v>-198.23599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>67008.376008</v>
+        <v>67008.376008000007</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.613438</v>
+        <v>18.613437999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.400000</v>
+        <v>1316.4</v>
       </c>
       <c r="S13" s="1">
-        <v>-182.137000</v>
+        <v>-182.137</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>67018.896647</v>
+        <v>67018.896647000001</v>
       </c>
       <c r="V13" s="1">
-        <v>18.616360</v>
+        <v>18.61636</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.300000</v>
+        <v>1330.3</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.245000</v>
+        <v>-170.245</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>67029.674118</v>
+        <v>67029.674117999995</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.619354</v>
+        <v>18.619354000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.750000</v>
+        <v>1348.75</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.441000</v>
+        <v>-169.441</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>67040.117979</v>
+        <v>67040.117979000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>18.622255</v>
+        <v>18.622254999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.490000</v>
+        <v>1362.49</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.545000</v>
+        <v>-179.54499999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>67050.599966</v>
+        <v>67050.599965999994</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.625167</v>
+        <v>18.625167000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.635000</v>
+        <v>-209.63499999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>67061.340832</v>
+        <v>67061.340832000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.628150</v>
+        <v>18.628150000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.183000</v>
+        <v>-253.18299999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>67072.404561</v>
+        <v>67072.404561000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.631223</v>
+        <v>18.631222999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1432.020000</v>
+        <v>1432.02</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.606000</v>
+        <v>-312.60599999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>67083.766914</v>
+        <v>67083.766914000007</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.634380</v>
+        <v>18.63438</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.086000</v>
+        <v>-364.08600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>67094.741395</v>
+        <v>67094.741395000005</v>
       </c>
       <c r="BE13" s="1">
         <v>18.637428</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.680000</v>
+        <v>1538.68</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.339000</v>
+        <v>-609.33900000000006</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>67105.309194</v>
+        <v>67105.309194000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.640364</v>
+        <v>18.640364000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1694.710000</v>
+        <v>1694.71</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1047.900000</v>
+        <v>-1047.9000000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>67115.983078</v>
+        <v>67115.983078000005</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.643329</v>
+        <v>18.643329000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1991.570000</v>
+        <v>1991.57</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1804.980000</v>
+        <v>-1804.98</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>67126.532970</v>
+        <v>67126.53297</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.646259</v>
+        <v>18.646259000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2379.390000</v>
+        <v>2379.39</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2673.100000</v>
+        <v>-2673.1</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>67137.296154</v>
+        <v>67137.296153999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.649249</v>
+        <v>18.649249000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2863.840000</v>
+        <v>2863.84</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3621.730000</v>
+        <v>-3621.73</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>67149.296422</v>
+        <v>67149.296421999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.652582</v>
+        <v>18.652581999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4274.560000</v>
+        <v>4274.5600000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5896.580000</v>
+        <v>-5896.58</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>66977.269408</v>
+        <v>66977.269407999993</v>
       </c>
       <c r="B14" s="1">
-        <v>18.604797</v>
+        <v>18.604797000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="D14" s="1">
-        <v>-292.615000</v>
+        <v>-292.61500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>66987.692337</v>
@@ -3580,103 +3996,103 @@
         <v>18.607692</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.230000</v>
+        <v>1269.23</v>
       </c>
       <c r="I14" s="1">
-        <v>-254.834000</v>
+        <v>-254.834</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>66998.178756</v>
+        <v>66998.178755999994</v>
       </c>
       <c r="L14" s="1">
         <v>18.610605</v>
       </c>
       <c r="M14" s="1">
-        <v>1303.930000</v>
+        <v>1303.93</v>
       </c>
       <c r="N14" s="1">
-        <v>-198.544000</v>
+        <v>-198.54400000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>67009.073915</v>
+        <v>67009.073915000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.613632</v>
+        <v>18.613631999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.320000</v>
+        <v>1316.32</v>
       </c>
       <c r="S14" s="1">
-        <v>-182.195000</v>
+        <v>-182.19499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>67019.581623</v>
+        <v>67019.581623000005</v>
       </c>
       <c r="V14" s="1">
-        <v>18.616550</v>
+        <v>18.61655</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.150000</v>
+        <v>1330.15</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.458000</v>
+        <v>-170.458</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>67030.022905</v>
+        <v>67030.022905000005</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.619451</v>
+        <v>18.619451000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1348.870000</v>
+        <v>1348.87</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.456000</v>
+        <v>-169.45599999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>67040.523091</v>
+        <v>67040.523090999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.622368</v>
+        <v>18.622368000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.440000</v>
+        <v>1362.44</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.578000</v>
+        <v>-179.578</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>67050.946637</v>
+        <v>67050.946637000001</v>
       </c>
       <c r="AK14" s="1">
         <v>18.625263</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.140000</v>
+        <v>1384.14</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.612000</v>
+        <v>-209.61199999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>67062.007457</v>
@@ -3685,285 +4101,285 @@
         <v>18.628335</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.187000</v>
+        <v>-253.18700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>67073.079120</v>
+        <v>67073.079119999995</v>
       </c>
       <c r="AU14" s="1">
         <v>18.631411</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.060000</v>
+        <v>1432.06</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.573000</v>
+        <v>-312.57299999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>67084.154290</v>
+        <v>67084.154290000006</v>
       </c>
       <c r="AZ14" s="1">
         <v>18.634487</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.840000</v>
+        <v>1451.84</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.135000</v>
+        <v>-364.13499999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>67095.101621</v>
+        <v>67095.101620999994</v>
       </c>
       <c r="BE14" s="1">
         <v>18.637528</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.670000</v>
+        <v>1538.67</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.369000</v>
+        <v>-609.36900000000003</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>67105.662805</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.640462</v>
+        <v>18.640461999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1694.910000</v>
+        <v>1694.91</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1048.020000</v>
+        <v>-1048.02</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>67116.375927</v>
+        <v>67116.375927000001</v>
       </c>
       <c r="BO14" s="1">
         <v>18.643438</v>
       </c>
       <c r="BP14" s="1">
-        <v>1991.480000</v>
+        <v>1991.48</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1805.140000</v>
+        <v>-1805.14</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>67126.952586</v>
+        <v>67126.952585999999</v>
       </c>
       <c r="BT14" s="1">
         <v>18.646376</v>
       </c>
       <c r="BU14" s="1">
-        <v>2379.450000</v>
+        <v>2379.4499999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2672.940000</v>
+        <v>-2672.94</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>67137.750498</v>
+        <v>67137.750497999994</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.649375</v>
+        <v>18.649374999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2864.180000</v>
+        <v>2864.18</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3621.170000</v>
+        <v>-3621.17</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>67149.815210</v>
+        <v>67149.815210000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.652726</v>
+        <v>18.652726000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4270.290000</v>
+        <v>4270.29</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5897.750000</v>
+        <v>-5897.75</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>66977.612640</v>
+        <v>66977.612640000007</v>
       </c>
       <c r="B15" s="1">
         <v>18.604892</v>
       </c>
       <c r="C15" s="1">
-        <v>1246.190000</v>
+        <v>1246.19</v>
       </c>
       <c r="D15" s="1">
-        <v>-292.784000</v>
+        <v>-292.78399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>66988.037552</v>
+        <v>66988.037551999994</v>
       </c>
       <c r="G15" s="1">
-        <v>18.607788</v>
+        <v>18.607787999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.130000</v>
+        <v>1269.1300000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-253.725000</v>
+        <v>-253.72499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>66998.873652</v>
+        <v>66998.873651999995</v>
       </c>
       <c r="L15" s="1">
-        <v>18.610798</v>
+        <v>18.610797999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1303.860000</v>
+        <v>1303.8599999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-198.486000</v>
+        <v>-198.48599999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>67009.425044</v>
+        <v>67009.425044000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.613729</v>
+        <v>18.613728999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.250000</v>
+        <v>1316.25</v>
       </c>
       <c r="S15" s="1">
-        <v>-182.171000</v>
+        <v>-182.17099999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>67019.928855</v>
+        <v>67019.928855000006</v>
       </c>
       <c r="V15" s="1">
         <v>18.616647</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.260000</v>
+        <v>1330.26</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.336000</v>
+        <v>-170.33600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>67030.374570</v>
+        <v>67030.37457</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.619548</v>
+        <v>18.619548000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1348.730000</v>
+        <v>1348.73</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.368000</v>
+        <v>-169.36799999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>67041.138747</v>
+        <v>67041.138747000005</v>
       </c>
       <c r="AF15" s="1">
         <v>18.622539</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.550000</v>
+        <v>1362.55</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.698000</v>
+        <v>-179.69800000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>67051.603836</v>
+        <v>67051.603835999995</v>
       </c>
       <c r="AK15" s="1">
         <v>18.625446</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.150000</v>
+        <v>1384.15</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.641000</v>
+        <v>-209.64099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>67062.453823</v>
+        <v>67062.453823000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.628459</v>
+        <v>18.628458999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.740000</v>
+        <v>1406.74</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.183000</v>
+        <v>-253.18299999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>67073.534944</v>
+        <v>67073.534943999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.631537</v>
+        <v>18.631537000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.050000</v>
+        <v>1432.05</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.560000</v>
+        <v>-312.56</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>67084.512401</v>
@@ -3972,255 +4388,255 @@
         <v>18.634587</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.840000</v>
+        <v>1451.84</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.114000</v>
+        <v>-364.11399999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>67095.462116</v>
+        <v>67095.462115999995</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.637628</v>
+        <v>18.637627999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.620000</v>
+        <v>1538.62</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.321000</v>
+        <v>-609.32100000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>67106.038773</v>
+        <v>67106.038772999993</v>
       </c>
       <c r="BJ15" s="1">
         <v>18.640566</v>
       </c>
       <c r="BK15" s="1">
-        <v>1694.690000</v>
+        <v>1694.69</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1047.910000</v>
+        <v>-1047.9100000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>67116.798517</v>
+        <v>67116.798517000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.643555</v>
+        <v>18.643554999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1991.450000</v>
+        <v>1991.45</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1805.240000</v>
+        <v>-1805.24</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>67127.362315</v>
+        <v>67127.362315000006</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.646490</v>
+        <v>18.64649</v>
       </c>
       <c r="BU15" s="1">
-        <v>2380.060000</v>
+        <v>2380.06</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2672.850000</v>
+        <v>-2672.85</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>67138.164407</v>
+        <v>67138.164407000004</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.649490</v>
+        <v>18.64949</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2863.220000</v>
+        <v>2863.22</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3621.280000</v>
+        <v>-3621.28</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>67150.367227</v>
+        <v>67150.367226999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.652880</v>
+        <v>18.65288</v>
       </c>
       <c r="CE15" s="1">
-        <v>4258.340000</v>
+        <v>4258.34</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5886.480000</v>
+        <v>-5886.48</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>66978.293150</v>
+        <v>66978.293149999998</v>
       </c>
       <c r="B16" s="1">
-        <v>18.605081</v>
+        <v>18.605080999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1245.880000</v>
+        <v>1245.8800000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-292.540000</v>
+        <v>-292.54000000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>66988.726993</v>
+        <v>66988.726993000004</v>
       </c>
       <c r="G16" s="1">
-        <v>18.607980</v>
+        <v>18.607980000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.200000</v>
+        <v>1269.2</v>
       </c>
       <c r="I16" s="1">
-        <v>-255.088000</v>
+        <v>-255.08799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>66999.224817</v>
+        <v>66999.224816999995</v>
       </c>
       <c r="L16" s="1">
         <v>18.610896</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.290000</v>
+        <v>1304.29</v>
       </c>
       <c r="N16" s="1">
-        <v>-198.315000</v>
+        <v>-198.315</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>67009.770261</v>
+        <v>67009.770260999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.613825</v>
+        <v>18.613824999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.290000</v>
+        <v>1316.29</v>
       </c>
       <c r="S16" s="1">
-        <v>-182.025000</v>
+        <v>-182.02500000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>67020.269080</v>
+        <v>67020.269079999998</v>
       </c>
       <c r="V16" s="1">
-        <v>18.616741</v>
+        <v>18.616741000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.230000</v>
+        <v>1330.23</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.203000</v>
+        <v>-170.203</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>67031.029815</v>
+        <v>67031.029815000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.619731</v>
+        <v>18.619731000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1348.840000</v>
+        <v>1348.84</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.423000</v>
+        <v>-169.423</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>67041.505786</v>
+        <v>67041.505785999994</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.622640</v>
+        <v>18.622640000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.500000</v>
+        <v>1362.5</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.582000</v>
+        <v>-179.58199999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>67051.997164</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.625555</v>
+        <v>18.625554999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.220000</v>
+        <v>1384.22</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.634000</v>
+        <v>-209.63399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>67062.815438</v>
+        <v>67062.815438000005</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.628560</v>
+        <v>18.62856</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.157000</v>
+        <v>-253.15700000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>67073.897520</v>
+        <v>67073.897519999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.631638</v>
+        <v>18.631637999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1432.040000</v>
+        <v>1432.04</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.591000</v>
+        <v>-312.59100000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>67084.873024</v>
@@ -4229,1011 +4645,1011 @@
         <v>18.634687</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.107000</v>
+        <v>-364.10700000000003</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>67095.884179</v>
+        <v>67095.884179000001</v>
       </c>
       <c r="BE16" s="1">
         <v>18.637746</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.650000</v>
+        <v>1538.65</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.294000</v>
+        <v>-609.29399999999998</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>67106.455940</v>
+        <v>67106.45594</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.640682</v>
+        <v>18.640682000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1694.900000</v>
+        <v>1694.9</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1047.920000</v>
+        <v>-1047.92</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>67117.195814</v>
+        <v>67117.195814000006</v>
       </c>
       <c r="BO16" s="1">
         <v>18.643666</v>
       </c>
       <c r="BP16" s="1">
-        <v>1991.560000</v>
+        <v>1991.56</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1805.030000</v>
+        <v>-1805.03</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>67127.777431</v>
+        <v>67127.777430999995</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.646605</v>
+        <v>18.646605000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2380.150000</v>
+        <v>2380.15</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2672.550000</v>
+        <v>-2672.55</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>67138.621465</v>
+        <v>67138.621465000004</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.649617</v>
+        <v>18.649616999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2863.340000</v>
+        <v>2863.34</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3621.420000</v>
+        <v>-3621.42</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>67150.895465</v>
+        <v>67150.895464999994</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.653027</v>
+        <v>18.653027000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4272.030000</v>
+        <v>4272.03</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5896.900000</v>
+        <v>-5896.9</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>66978.636913</v>
+        <v>66978.636912999995</v>
       </c>
       <c r="B17" s="1">
-        <v>18.605177</v>
+        <v>18.605177000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.980000</v>
+        <v>1245.98</v>
       </c>
       <c r="D17" s="1">
-        <v>-292.890000</v>
+        <v>-292.89</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>66989.067743</v>
+        <v>66989.067743000007</v>
       </c>
       <c r="G17" s="1">
-        <v>18.608074</v>
+        <v>18.608073999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.820000</v>
+        <v>1268.82</v>
       </c>
       <c r="I17" s="1">
-        <v>-254.007000</v>
+        <v>-254.00700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>66999.570065</v>
+        <v>66999.570065000007</v>
       </c>
       <c r="L17" s="1">
         <v>18.610992</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.150000</v>
+        <v>1304.1500000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-198.257000</v>
+        <v>-198.25700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>67010.429940</v>
+        <v>67010.429940000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.614008</v>
+        <v>18.614007999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.290000</v>
+        <v>1316.29</v>
       </c>
       <c r="S17" s="1">
-        <v>-182.011000</v>
+        <v>-182.011</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>67020.920852</v>
+        <v>67020.920851999996</v>
       </c>
       <c r="V17" s="1">
-        <v>18.616922</v>
+        <v>18.616921999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.080000</v>
+        <v>1330.08</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.369000</v>
+        <v>-170.369</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>67031.414183</v>
+        <v>67031.414183000001</v>
       </c>
       <c r="AA17" s="1">
         <v>18.619837</v>
       </c>
       <c r="AB17" s="1">
-        <v>1348.700000</v>
+        <v>1348.7</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.528000</v>
+        <v>-169.52799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>67041.850041</v>
+        <v>67041.850040999998</v>
       </c>
       <c r="AF17" s="1">
         <v>18.622736</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.510000</v>
+        <v>1362.51</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.603000</v>
+        <v>-179.60300000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>67052.343371</v>
+        <v>67052.343370999995</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.625651</v>
+        <v>18.625651000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.130000</v>
+        <v>1384.13</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.607000</v>
+        <v>-209.607</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>67063.174014</v>
+        <v>67063.174014000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.628659</v>
+        <v>18.628658999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.156000</v>
+        <v>-253.15600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>67074.257615</v>
+        <v>67074.257614999995</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.631738</v>
+        <v>18.631737999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.040000</v>
+        <v>1432.04</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.567000</v>
+        <v>-312.56700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>67085.294592</v>
+        <v>67085.294592000006</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.634804</v>
+        <v>18.634803999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.890000</v>
+        <v>1451.89</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.093000</v>
+        <v>-364.09300000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>67096.187761</v>
+        <v>67096.187760999994</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.637830</v>
+        <v>18.637830000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.630000</v>
+        <v>1538.63</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.297000</v>
+        <v>-609.29700000000003</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>67106.788725</v>
+        <v>67106.788725000006</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.640775</v>
+        <v>18.640775000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1694.740000</v>
+        <v>1694.74</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1048.020000</v>
+        <v>-1048.02</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>67117.618902</v>
+        <v>67117.618902000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.643783</v>
+        <v>18.643782999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1991.480000</v>
+        <v>1991.48</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1804.890000</v>
+        <v>-1804.89</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>67128.190600</v>
+        <v>67128.190600000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.646720</v>
+        <v>18.646719999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2380.680000</v>
+        <v>2380.6799999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2673.060000</v>
+        <v>-2673.06</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>67139.069353</v>
+        <v>67139.069352999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.649741</v>
+        <v>18.649740999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2863.460000</v>
+        <v>2863.46</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3620.890000</v>
+        <v>-3620.89</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>67151.413291</v>
+        <v>67151.413291000004</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.653170</v>
+        <v>18.653169999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4278.660000</v>
+        <v>4278.66</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5881.450000</v>
+        <v>-5881.45</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>66978.977630</v>
+        <v>66978.977629999994</v>
       </c>
       <c r="B18" s="1">
-        <v>18.605272</v>
+        <v>18.605271999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1245.980000</v>
+        <v>1245.98</v>
       </c>
       <c r="D18" s="1">
-        <v>-292.708000</v>
+        <v>-292.70800000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>66989.740355</v>
+        <v>66989.740355000002</v>
       </c>
       <c r="G18" s="1">
-        <v>18.608261</v>
+        <v>18.608260999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I18" s="1">
-        <v>-255.285000</v>
+        <v>-255.285</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>67000.225777</v>
       </c>
       <c r="L18" s="1">
-        <v>18.611174</v>
+        <v>18.611173999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.280000</v>
+        <v>1304.28</v>
       </c>
       <c r="N18" s="1">
-        <v>-198.277000</v>
+        <v>-198.27699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>67010.816818</v>
+        <v>67010.816818000007</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.614116</v>
+        <v>18.614115999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.350000</v>
+        <v>1316.35</v>
       </c>
       <c r="S18" s="1">
-        <v>-182.082000</v>
+        <v>-182.08199999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>67021.300292</v>
       </c>
       <c r="V18" s="1">
-        <v>18.617028</v>
+        <v>18.617028000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.300000</v>
+        <v>1330.3</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.374000</v>
+        <v>-170.374</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>67031.766840</v>
+        <v>67031.766839999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.619935</v>
+        <v>18.619935000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.880000</v>
+        <v>1348.88</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.439000</v>
+        <v>-169.43899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>67042.194264</v>
+        <v>67042.194264000005</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.622832</v>
+        <v>18.622831999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.470000</v>
+        <v>1362.47</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.562000</v>
+        <v>-179.56200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>67052.693580</v>
+        <v>67052.693580000006</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.625748</v>
+        <v>18.625748000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.210000</v>
+        <v>1384.21</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.585000</v>
+        <v>-209.58500000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>67063.601103</v>
+        <v>67063.601102999994</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.628778</v>
+        <v>18.628778000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.152000</v>
+        <v>-253.15199999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>67074.759598</v>
+        <v>67074.759598000004</v>
       </c>
       <c r="AU18" s="1">
         <v>18.631878</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.050000</v>
+        <v>1432.05</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.546000</v>
+        <v>-312.54599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>67085.587728</v>
+        <v>67085.587727999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.634885</v>
+        <v>18.634885000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.200000</v>
+        <v>-364.2</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>67096.546370</v>
+        <v>67096.546369999996</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.637930</v>
+        <v>18.637930000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.630000</v>
+        <v>1538.63</v>
       </c>
       <c r="BG18" s="1">
-        <v>-609.309000</v>
+        <v>-609.30899999999997</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>67107.190980</v>
+        <v>67107.190979999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.640886</v>
+        <v>18.640885999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1694.880000</v>
+        <v>1694.88</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.830000</v>
+        <v>-1047.83</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>67118.017157</v>
+        <v>67118.017156999995</v>
       </c>
       <c r="BO18" s="1">
         <v>18.643894</v>
       </c>
       <c r="BP18" s="1">
-        <v>1991.440000</v>
+        <v>1991.44</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1805.060000</v>
+        <v>-1805.06</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>67128.611242</v>
+        <v>67128.611241999999</v>
       </c>
       <c r="BT18" s="1">
         <v>18.646836</v>
       </c>
       <c r="BU18" s="1">
-        <v>2380.860000</v>
+        <v>2380.86</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2672.510000</v>
+        <v>-2672.51</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>67139.491944</v>
+        <v>67139.491943999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.649859</v>
+        <v>18.649858999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2862.490000</v>
+        <v>2862.49</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3620.700000</v>
+        <v>-3620.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>67151.932104</v>
+        <v>67151.932104000007</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.653314</v>
+        <v>18.653314000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4261.680000</v>
+        <v>4261.68</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5877.690000</v>
+        <v>-5877.69</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>66979.632845</v>
       </c>
       <c r="B19" s="1">
-        <v>18.605454</v>
+        <v>18.605454000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1246.370000</v>
+        <v>1246.3699999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-292.651000</v>
+        <v>-292.65100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>66990.102893</v>
+        <v>66990.102893000003</v>
       </c>
       <c r="G19" s="1">
         <v>18.608362</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.280000</v>
+        <v>1269.28</v>
       </c>
       <c r="I19" s="1">
-        <v>-253.877000</v>
+        <v>-253.87700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>67000.607200</v>
+        <v>67000.607199999999</v>
       </c>
       <c r="L19" s="1">
-        <v>18.611280</v>
+        <v>18.611280000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1303.790000</v>
+        <v>1303.79</v>
       </c>
       <c r="N19" s="1">
-        <v>-198.541000</v>
+        <v>-198.541</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>67011.164064</v>
+        <v>67011.164063999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.614212</v>
+        <v>18.614211999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.350000</v>
+        <v>1316.35</v>
       </c>
       <c r="S19" s="1">
-        <v>-182.141000</v>
+        <v>-182.14099999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>67021.644485</v>
+        <v>67021.644484999997</v>
       </c>
       <c r="V19" s="1">
-        <v>18.617123</v>
+        <v>18.617122999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.320000</v>
+        <v>1330.32</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.185000</v>
+        <v>-170.185</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>67032.113046</v>
+        <v>67032.113045999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.620031</v>
+        <v>18.620031000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1348.840000</v>
+        <v>1348.84</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.459000</v>
+        <v>-169.459</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>67042.614378</v>
+        <v>67042.614377999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.622948</v>
+        <v>18.622948000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.530000</v>
+        <v>1362.53</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.568000</v>
+        <v>-179.56800000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>67053.118122</v>
       </c>
       <c r="AK19" s="1">
-        <v>18.625866</v>
+        <v>18.625865999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.220000</v>
+        <v>1384.22</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.616000</v>
+        <v>-209.61600000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>67063.894206</v>
+        <v>67063.894205999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.628860</v>
+        <v>18.62886</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.178000</v>
+        <v>-253.178</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>67075.022941</v>
+        <v>67075.022941000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.631951</v>
+        <v>18.631951000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.000000</v>
+        <v>1432</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.564000</v>
+        <v>-312.56400000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>67085.945872</v>
+        <v>67085.945871999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>18.634985</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.880000</v>
+        <v>1451.88</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.074000</v>
+        <v>-364.07400000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>67096.909441</v>
+        <v>67096.909440999996</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.638030</v>
+        <v>18.638030000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.660000</v>
+        <v>1538.66</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.284000</v>
+        <v>-609.28399999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>67107.567443</v>
+        <v>67107.567443000007</v>
       </c>
       <c r="BJ19" s="1">
         <v>18.640991</v>
       </c>
       <c r="BK19" s="1">
-        <v>1694.650000</v>
+        <v>1694.65</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1047.820000</v>
+        <v>-1047.82</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>67118.436772</v>
+        <v>67118.436772000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.644010</v>
+        <v>18.644010000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1991.550000</v>
+        <v>1991.55</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1805.030000</v>
+        <v>-1805.03</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>67129.020406</v>
+        <v>67129.020405999996</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.646950</v>
+        <v>18.64695</v>
       </c>
       <c r="BU19" s="1">
-        <v>2381.000000</v>
+        <v>2381</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2672.640000</v>
+        <v>-2672.64</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>67139.913047</v>
+        <v>67139.913046999995</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.649976</v>
+        <v>18.649975999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2862.890000</v>
+        <v>2862.89</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3621.330000</v>
+        <v>-3621.33</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>67152.450950</v>
+        <v>67152.450949999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.653459</v>
+        <v>18.653459000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>4270.230000</v>
+        <v>4270.2299999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5874.110000</v>
+        <v>-5874.11</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>66979.999916</v>
+        <v>66979.999916000001</v>
       </c>
       <c r="B20" s="1">
         <v>18.605556</v>
       </c>
       <c r="C20" s="1">
-        <v>1246.350000</v>
+        <v>1246.3499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-292.636000</v>
+        <v>-292.63600000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>66990.450131</v>
+        <v>66990.450131000005</v>
       </c>
       <c r="G20" s="1">
-        <v>18.608458</v>
+        <v>18.608457999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.020000</v>
+        <v>1269.02</v>
       </c>
       <c r="I20" s="1">
-        <v>-254.997000</v>
+        <v>-254.99700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>67000.950433</v>
+        <v>67000.950433000005</v>
       </c>
       <c r="L20" s="1">
-        <v>18.611375</v>
+        <v>18.611374999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.320000</v>
+        <v>1304.32</v>
       </c>
       <c r="N20" s="1">
-        <v>-198.268000</v>
+        <v>-198.268</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>67011.513697</v>
+        <v>67011.513697000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.614309</v>
+        <v>18.614308999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.310000</v>
+        <v>1316.31</v>
       </c>
       <c r="S20" s="1">
-        <v>-182.093000</v>
+        <v>-182.09299999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>67021.991510</v>
+        <v>67021.991510000007</v>
       </c>
       <c r="V20" s="1">
-        <v>18.617220</v>
+        <v>18.61722</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.360000</v>
+        <v>1330.36</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.376000</v>
+        <v>-170.376</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>67032.531670</v>
+        <v>67032.531669999997</v>
       </c>
       <c r="AA20" s="1">
         <v>18.620148</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.790000</v>
+        <v>1348.79</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.467000</v>
+        <v>-169.46700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>67042.896073</v>
+        <v>67042.896072999996</v>
       </c>
       <c r="AF20" s="1">
         <v>18.623027</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.430000</v>
+        <v>1362.43</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.535000</v>
+        <v>-179.535</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>67053.397899</v>
+        <v>67053.397899000003</v>
       </c>
       <c r="AK20" s="1">
         <v>18.625944</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.615000</v>
+        <v>-209.61500000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>67064.253843</v>
+        <v>67064.253842999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.628959</v>
+        <v>18.628958999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.180000</v>
+        <v>-253.18</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>67075.357246</v>
@@ -5242,1662 +5658,1663 @@
         <v>18.632044</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.556000</v>
+        <v>-312.55599999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>67086.309443</v>
+        <v>67086.309443000006</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.635086</v>
+        <v>18.635086000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.820000</v>
+        <v>1451.82</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.121000</v>
+        <v>-364.12099999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>67097.631087</v>
+        <v>67097.631087000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.638231</v>
+        <v>18.638231000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.660000</v>
+        <v>1538.66</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.339000</v>
+        <v>-609.33900000000006</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>67108.314455</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.641198</v>
+        <v>18.641197999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1694.920000</v>
+        <v>1694.92</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1047.850000</v>
+        <v>-1047.8499999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>67118.836087</v>
+        <v>67118.836087000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.644121</v>
+        <v>18.644120999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1991.480000</v>
+        <v>1991.48</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1804.950000</v>
+        <v>-1804.95</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>67129.433573</v>
+        <v>67129.433573000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.647065</v>
+        <v>18.647065000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2381.340000</v>
+        <v>2381.34</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2672.830000</v>
+        <v>-2672.83</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>67140.337625</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.650094</v>
+        <v>18.650093999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2863.360000</v>
+        <v>2863.36</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3621.200000</v>
+        <v>-3621.2</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>67153.315942</v>
+        <v>67153.315942000001</v>
       </c>
       <c r="CD20" s="1">
         <v>18.653699</v>
       </c>
       <c r="CE20" s="1">
-        <v>4278.590000</v>
+        <v>4278.59</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5881.950000</v>
+        <v>-5881.95</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>66980.348074</v>
+        <v>66980.348073999994</v>
       </c>
       <c r="B21" s="1">
-        <v>18.605652</v>
+        <v>18.605651999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1245.970000</v>
+        <v>1245.97</v>
       </c>
       <c r="D21" s="1">
-        <v>-292.601000</v>
+        <v>-292.601</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>66990.793324</v>
+        <v>66990.793323999998</v>
       </c>
       <c r="G21" s="1">
-        <v>18.608554</v>
+        <v>18.608554000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.880000</v>
+        <v>1269.8800000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-254.339000</v>
+        <v>-254.339</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>67001.300575</v>
+        <v>67001.300575000001</v>
       </c>
       <c r="L21" s="1">
-        <v>18.611472</v>
+        <v>18.611471999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.080000</v>
+        <v>1304.08</v>
       </c>
       <c r="N21" s="1">
-        <v>-198.285000</v>
+        <v>-198.285</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>67011.927362</v>
+        <v>67011.927362000002</v>
       </c>
       <c r="Q21" s="1">
         <v>18.614424</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.260000</v>
+        <v>1316.26</v>
       </c>
       <c r="S21" s="1">
-        <v>-182.074000</v>
+        <v>-182.07400000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>67022.428200</v>
+        <v>67022.428199999995</v>
       </c>
       <c r="V21" s="1">
         <v>18.617341</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.230000</v>
+        <v>1330.23</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.315000</v>
+        <v>-170.315</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>67032.820357</v>
+        <v>67032.820357000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.620228</v>
+        <v>18.620228000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1348.810000</v>
+        <v>1348.81</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.588000</v>
+        <v>-169.58799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>67043.235833</v>
+        <v>67043.235832999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.623121</v>
+        <v>18.623121000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.440000</v>
+        <v>1362.44</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.560000</v>
+        <v>-179.56</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>67053.747049</v>
+        <v>67053.747048999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.626041</v>
+        <v>18.626041000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.200000</v>
+        <v>1384.2</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.614000</v>
+        <v>-209.614</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>67064.613436</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.629059</v>
+        <v>18.629059000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.690000</v>
+        <v>1406.69</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.151000</v>
+        <v>-253.15100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>67076.085868</v>
+        <v>67076.085867999995</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.632246</v>
+        <v>18.632245999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.566000</v>
+        <v>-312.56599999999997</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>67087.023677</v>
+        <v>67087.023677000005</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.635284</v>
+        <v>18.635283999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.880000</v>
+        <v>1451.88</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.109000</v>
+        <v>-364.10899999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>67098.016975</v>
+        <v>67098.016975000006</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.638338</v>
+        <v>18.638338000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.650000</v>
+        <v>1538.65</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.292000</v>
+        <v>-609.29200000000003</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>67108.695858</v>
+        <v>67108.695858000006</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.641304</v>
+        <v>18.641304000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1694.850000</v>
+        <v>1694.85</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1047.970000</v>
+        <v>-1047.97</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>67119.257193</v>
+        <v>67119.257192999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.644238</v>
+        <v>18.644238000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1991.470000</v>
+        <v>1991.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1804.960000</v>
+        <v>-1804.96</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>67130.161732</v>
+        <v>67130.161731999993</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.647267</v>
+        <v>18.647266999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2381.490000</v>
+        <v>2381.4899999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2673.020000</v>
+        <v>-2673.02</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>67141.061782</v>
+        <v>67141.061782000004</v>
       </c>
       <c r="BY21" s="1">
         <v>18.650295</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2863.480000</v>
+        <v>2863.48</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3620.700000</v>
+        <v>-3620.7</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>67153.532199</v>
+        <v>67153.532198999994</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.653759</v>
+        <v>18.653759000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4262.570000</v>
+        <v>4262.57</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5877.530000</v>
+        <v>-5877.53</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>66980.687340</v>
+        <v>66980.687340000004</v>
       </c>
       <c r="B22" s="1">
         <v>18.605746</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.980000</v>
+        <v>1245.98</v>
       </c>
       <c r="D22" s="1">
-        <v>-292.688000</v>
+        <v>-292.68799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>66991.217937</v>
+        <v>66991.217936999994</v>
       </c>
       <c r="G22" s="1">
-        <v>18.608672</v>
+        <v>18.608671999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1270.060000</v>
+        <v>1270.06</v>
       </c>
       <c r="I22" s="1">
-        <v>-254.401000</v>
+        <v>-254.40100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>67001.723662</v>
+        <v>67001.723662000004</v>
       </c>
       <c r="L22" s="1">
-        <v>18.611590</v>
+        <v>18.61159</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="N22" s="1">
-        <v>-198.603000</v>
+        <v>-198.60300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>67012.223472</v>
+        <v>67012.223471999998</v>
       </c>
       <c r="Q22" s="1">
         <v>18.614507</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.250000</v>
+        <v>1316.25</v>
       </c>
       <c r="S22" s="1">
-        <v>-182.084000</v>
+        <v>-182.084</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>67022.694552</v>
+        <v>67022.694552000001</v>
       </c>
       <c r="V22" s="1">
-        <v>18.617415</v>
+        <v>18.617415000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.990000</v>
+        <v>1329.99</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.477000</v>
+        <v>-170.477</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>67033.171508</v>
+        <v>67033.171507999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.620325</v>
+        <v>18.620325000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.830000</v>
+        <v>1348.83</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.441000</v>
+        <v>-169.441</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>67043.580551</v>
+        <v>67043.580551000006</v>
       </c>
       <c r="AF22" s="1">
         <v>18.623217</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.460000</v>
+        <v>1362.46</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.643000</v>
+        <v>-179.643</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>67054.096233</v>
+        <v>67054.096233000004</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.626138</v>
+        <v>18.626138000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.200000</v>
+        <v>1384.2</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.588000</v>
+        <v>-209.58799999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>67065.341531</v>
+        <v>67065.341530999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.629262</v>
+        <v>18.629262000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.670000</v>
+        <v>1406.67</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.183000</v>
+        <v>-253.18299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>67076.473739</v>
+        <v>67076.473738999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.632354</v>
+        <v>18.632353999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.030000</v>
+        <v>1432.03</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.571000</v>
+        <v>-312.57100000000003</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>67087.382253</v>
+        <v>67087.382253000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.635384</v>
+        <v>18.635383999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.110000</v>
+        <v>-364.11</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>67098.377078</v>
+        <v>67098.377078000005</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.638438</v>
+        <v>18.638438000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.660000</v>
+        <v>1538.66</v>
       </c>
       <c r="BG22" s="1">
-        <v>-609.324000</v>
+        <v>-609.32399999999996</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>67109.388753</v>
+        <v>67109.388753000007</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.641497</v>
+        <v>18.641497000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1694.900000</v>
+        <v>1694.9</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1047.780000</v>
+        <v>-1047.78</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>67119.958995</v>
+        <v>67119.958994999994</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.644433</v>
+        <v>18.644432999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1991.370000</v>
+        <v>1991.37</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1804.900000</v>
+        <v>-1804.9</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>67130.288217</v>
+        <v>67130.288216999994</v>
       </c>
       <c r="BT22" s="1">
         <v>18.647302</v>
       </c>
       <c r="BU22" s="1">
-        <v>2381.840000</v>
+        <v>2381.84</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2673.080000</v>
+        <v>-2673.08</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>67141.204134</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.650334</v>
+        <v>18.650334000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2862.940000</v>
+        <v>2862.94</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3620.650000</v>
+        <v>-3620.65</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>67154.050550</v>
+        <v>67154.05055</v>
       </c>
       <c r="CD22" s="1">
         <v>18.653903</v>
       </c>
       <c r="CE22" s="1">
-        <v>4267.650000</v>
+        <v>4267.6499999999996</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5894.100000</v>
+        <v>-5894.1</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>66981.109966</v>
+        <v>66981.109966000004</v>
       </c>
       <c r="B23" s="1">
         <v>18.605864</v>
       </c>
       <c r="C23" s="1">
-        <v>1245.850000</v>
+        <v>1245.8499999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-292.678000</v>
+        <v>-292.678</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>66991.498139</v>
+        <v>66991.498139000003</v>
       </c>
       <c r="G23" s="1">
         <v>18.608749</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.740000</v>
+        <v>1269.74</v>
       </c>
       <c r="I23" s="1">
-        <v>-255.090000</v>
+        <v>-255.09</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>67002.001918</v>
+        <v>67002.001917999994</v>
       </c>
       <c r="L23" s="1">
-        <v>18.611667</v>
+        <v>18.611667000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.180000</v>
+        <v>1304.18</v>
       </c>
       <c r="N23" s="1">
-        <v>-198.431000</v>
+        <v>-198.43100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>67012.569680</v>
+        <v>67012.569680000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.614603</v>
+        <v>18.614602999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.280000</v>
+        <v>1316.28</v>
       </c>
       <c r="S23" s="1">
-        <v>-182.017000</v>
+        <v>-182.017</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>67023.037746</v>
+        <v>67023.037746000002</v>
       </c>
       <c r="V23" s="1">
-        <v>18.617510</v>
+        <v>18.617509999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.330000</v>
+        <v>1330.33</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.267000</v>
+        <v>-170.267</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>67033.517717</v>
+        <v>67033.517716999995</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.620422</v>
+        <v>18.620422000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1348.670000</v>
+        <v>1348.67</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.511000</v>
+        <v>-169.511</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>67044.266551</v>
+        <v>67044.266550999993</v>
       </c>
       <c r="AF23" s="1">
         <v>18.623407</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.520000</v>
+        <v>1362.52</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.514000</v>
+        <v>-179.51400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>67054.793150</v>
+        <v>67054.793149999998</v>
       </c>
       <c r="AK23" s="1">
         <v>18.626331</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.170000</v>
+        <v>1384.17</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.591000</v>
+        <v>-209.59100000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>67065.720476</v>
+        <v>67065.720476000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.629367</v>
+        <v>18.629366999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.680000</v>
+        <v>1406.68</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.171000</v>
+        <v>-253.17099999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>67076.840300</v>
+        <v>67076.840299999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.632456</v>
+        <v>18.632456000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.050000</v>
+        <v>1432.05</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.568000</v>
+        <v>-312.56799999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>67087.741852</v>
+        <v>67087.741852000006</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.635484</v>
+        <v>18.635484000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.070000</v>
+        <v>-364.07</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>67099.043694</v>
+        <v>67099.043694000007</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.638623</v>
+        <v>18.638622999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.610000</v>
+        <v>1538.61</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.287000</v>
+        <v>-609.28700000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>67109.841104</v>
+        <v>67109.841104000006</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.641623</v>
+        <v>18.641622999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1694.730000</v>
+        <v>1694.73</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.940000</v>
+        <v>-1047.94</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>67120.074066</v>
+        <v>67120.074066000001</v>
       </c>
       <c r="BO23" s="1">
         <v>18.644465</v>
       </c>
       <c r="BP23" s="1">
-        <v>1991.360000</v>
+        <v>1991.36</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1804.800000</v>
+        <v>-1804.8</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>67130.726183</v>
+        <v>67130.726183000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.647424</v>
+        <v>18.647424000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2382.150000</v>
+        <v>2382.15</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2673.040000</v>
+        <v>-2673.04</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>67141.625275</v>
+        <v>67141.625274999999</v>
       </c>
       <c r="BY23" s="1">
         <v>18.650451</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2862.800000</v>
+        <v>2862.8</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3621.310000</v>
+        <v>-3621.31</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>67154.592644</v>
+        <v>67154.592644000004</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.654054</v>
+        <v>18.654053999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4278.430000</v>
+        <v>4278.43</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5879.490000</v>
+        <v>-5879.49</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>66981.387193</v>
+        <v>66981.387193000002</v>
       </c>
       <c r="B24" s="1">
-        <v>18.605941</v>
+        <v>18.605941000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1246.090000</v>
+        <v>1246.0899999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-292.845000</v>
+        <v>-292.84500000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>66991.842364</v>
+        <v>66991.842363999996</v>
       </c>
       <c r="G24" s="1">
-        <v>18.608845</v>
+        <v>18.608844999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="I24" s="1">
-        <v>-254.223000</v>
+        <v>-254.22300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>67002.348622</v>
+        <v>67002.348622000005</v>
       </c>
       <c r="L24" s="1">
-        <v>18.611764</v>
+        <v>18.611764000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.170000</v>
+        <v>1304.17</v>
       </c>
       <c r="N24" s="1">
-        <v>-198.222000</v>
+        <v>-198.22200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>67012.918905</v>
+        <v>67012.918904999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.614700</v>
+        <v>18.614699999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.310000</v>
+        <v>1316.31</v>
       </c>
       <c r="S24" s="1">
-        <v>-182.074000</v>
+        <v>-182.07400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>67023.720242</v>
+        <v>67023.720241999996</v>
       </c>
       <c r="V24" s="1">
-        <v>18.617700</v>
+        <v>18.617699999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.120000</v>
+        <v>1330.12</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.267000</v>
+        <v>-170.267</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>67034.217107</v>
+        <v>67034.217107000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.620616</v>
+        <v>18.620615999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.860000</v>
+        <v>1348.86</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.404000</v>
+        <v>-169.404</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>67044.611766</v>
+        <v>67044.611766000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.623503</v>
+        <v>18.623502999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.430000</v>
+        <v>1362.43</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.630000</v>
+        <v>-179.63</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>67055.142327</v>
+        <v>67055.142326999994</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.626428</v>
+        <v>18.626428000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.190000</v>
+        <v>1384.19</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.580000</v>
+        <v>-209.58</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>67066.079609</v>
+        <v>67066.079608999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.629467</v>
+        <v>18.629467000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.700000</v>
+        <v>1406.7</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.157000</v>
+        <v>-253.15700000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>67077.509414</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.632642</v>
+        <v>18.632642000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.060000</v>
+        <v>1432.06</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.564000</v>
+        <v>-312.56400000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>67088.409006</v>
+        <v>67088.409006000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>18.635669</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.095000</v>
+        <v>-364.09500000000003</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>67099.495054</v>
+        <v>67099.495053999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.638749</v>
+        <v>18.638749000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.620000</v>
+        <v>1538.62</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.277000</v>
+        <v>-609.27700000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>67110.217567</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.641727</v>
+        <v>18.641726999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1694.900000</v>
+        <v>1694.9</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1047.790000</v>
+        <v>-1047.79</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>67120.496658</v>
+        <v>67120.496658000004</v>
       </c>
       <c r="BO24" s="1">
         <v>18.644582</v>
       </c>
       <c r="BP24" s="1">
-        <v>1991.370000</v>
+        <v>1991.37</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1804.760000</v>
+        <v>-1804.76</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>67131.154196</v>
+        <v>67131.154196000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.647543</v>
+        <v>18.647542999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2382.010000</v>
+        <v>2382.0100000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2673.570000</v>
+        <v>-2673.57</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>67142.051302</v>
+        <v>67142.051302000007</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.650570</v>
+        <v>18.650569999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2863.460000</v>
+        <v>2863.46</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3621.110000</v>
+        <v>-3621.11</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>67155.129535</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.654203</v>
+        <v>18.654202999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4257.660000</v>
+        <v>4257.66</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5886.330000</v>
+        <v>-5886.33</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>66981.728441</v>
+        <v>66981.728440999999</v>
       </c>
       <c r="B25" s="1">
         <v>18.606036</v>
       </c>
       <c r="C25" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-292.819000</v>
+        <v>-292.81900000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>66992.187580</v>
+        <v>66992.187579999998</v>
       </c>
       <c r="G25" s="1">
-        <v>18.608941</v>
+        <v>18.608941000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.030000</v>
+        <v>1269.03</v>
       </c>
       <c r="I25" s="1">
-        <v>-253.918000</v>
+        <v>-253.91800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>67002.693838</v>
+        <v>67002.693838000007</v>
       </c>
       <c r="L25" s="1">
-        <v>18.611859</v>
+        <v>18.611858999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.010000</v>
+        <v>1304.01</v>
       </c>
       <c r="N25" s="1">
-        <v>-198.146000</v>
+        <v>-198.14599999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>67013.615744</v>
+        <v>67013.615743999995</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.614893</v>
+        <v>18.614892999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.270000</v>
+        <v>1316.27</v>
       </c>
       <c r="S25" s="1">
-        <v>-182.090000</v>
+        <v>-182.09</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>67024.068434</v>
+        <v>67024.068434000001</v>
       </c>
       <c r="V25" s="1">
-        <v>18.617797</v>
+        <v>18.617796999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.160000</v>
+        <v>1330.16</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.378000</v>
+        <v>-170.37799999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>67034.564771</v>
+        <v>67034.564771000005</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.620712</v>
+        <v>18.620712000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1348.760000</v>
+        <v>1348.76</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.506000</v>
+        <v>-169.506</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>67044.955003</v>
+        <v>67044.955002999995</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.623599</v>
+        <v>18.623598999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.490000</v>
+        <v>1362.49</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.583000</v>
+        <v>-179.583</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>67055.492471</v>
+        <v>67055.492471000005</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.626526</v>
+        <v>18.626525999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.579000</v>
+        <v>-209.57900000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>67066.743224</v>
+        <v>67066.743224000005</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.629651</v>
+        <v>18.629650999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.720000</v>
+        <v>1406.72</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.146000</v>
+        <v>-253.14599999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>67077.966697</v>
+        <v>67077.966696999996</v>
       </c>
       <c r="AU25" s="1">
         <v>18.632769</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.060000</v>
+        <v>1432.06</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.567000</v>
+        <v>-312.56700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>67088.845484</v>
+        <v>67088.845484000005</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.635790</v>
+        <v>18.63579</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.850000</v>
+        <v>1451.85</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.098000</v>
+        <v>-364.09800000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>67099.858125</v>
+        <v>67099.858124999999</v>
       </c>
       <c r="BE25" s="1">
         <v>18.638849</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.630000</v>
+        <v>1538.63</v>
       </c>
       <c r="BG25" s="1">
-        <v>-609.343000</v>
+        <v>-609.34299999999996</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>67110.591550</v>
+        <v>67110.591549999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>18.641831</v>
       </c>
       <c r="BK25" s="1">
-        <v>1694.870000</v>
+        <v>1694.87</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1047.830000</v>
+        <v>-1047.83</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>67120.895969</v>
+        <v>67120.895969000005</v>
       </c>
       <c r="BO25" s="1">
         <v>18.644693</v>
       </c>
       <c r="BP25" s="1">
-        <v>1991.460000</v>
+        <v>1991.46</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1804.840000</v>
+        <v>-1804.84</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>67131.579267</v>
+        <v>67131.579266999994</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.647661</v>
+        <v>18.647660999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2382.400000</v>
+        <v>2382.4</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2673.450000</v>
+        <v>-2673.45</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>67142.584537</v>
+        <v>67142.584537000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.650718</v>
+        <v>18.650718000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2862.750000</v>
+        <v>2862.75</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3620.120000</v>
+        <v>-3620.12</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>67155.670980</v>
+        <v>67155.670979999995</v>
       </c>
       <c r="CD25" s="1">
         <v>18.654353</v>
       </c>
       <c r="CE25" s="1">
-        <v>4278.490000</v>
+        <v>4278.49</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5891.040000</v>
+        <v>-5891.04</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>66982.069688</v>
+        <v>66982.069688000003</v>
       </c>
       <c r="B26" s="1">
-        <v>18.606130</v>
+        <v>18.60613</v>
       </c>
       <c r="C26" s="1">
-        <v>1246.150000</v>
+        <v>1246.1500000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-292.839000</v>
+        <v>-292.839</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>66992.881979</v>
+        <v>66992.881978999998</v>
       </c>
       <c r="G26" s="1">
-        <v>18.609134</v>
+        <v>18.609134000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1270.200000</v>
+        <v>1270.2</v>
       </c>
       <c r="I26" s="1">
-        <v>-254.417000</v>
+        <v>-254.417</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>67003.384765</v>
+        <v>67003.384764999995</v>
       </c>
       <c r="L26" s="1">
-        <v>18.612051</v>
+        <v>18.612051000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.190000</v>
+        <v>1304.19</v>
       </c>
       <c r="N26" s="1">
-        <v>-198.328000</v>
+        <v>-198.328</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>67013.965918</v>
+        <v>67013.965918000002</v>
       </c>
       <c r="Q26" s="1">
         <v>18.614991</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.290000</v>
+        <v>1316.29</v>
       </c>
       <c r="S26" s="1">
-        <v>-182.157000</v>
+        <v>-182.15700000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>67024.401778</v>
+        <v>67024.401777999999</v>
       </c>
       <c r="V26" s="1">
-        <v>18.617889</v>
+        <v>18.617889000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.400000</v>
+        <v>1330.4</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.400000</v>
+        <v>-170.4</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>67034.913995</v>
+        <v>67034.913994999995</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.620809</v>
+        <v>18.620809000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1348.840000</v>
+        <v>1348.84</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.442000</v>
+        <v>-169.44200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>67045.612164</v>
+        <v>67045.612164000006</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.623781</v>
+        <v>18.623781000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.500000</v>
+        <v>1362.5</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.572000</v>
+        <v>-179.572</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>67056.157146</v>
+        <v>67056.157145999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.626710</v>
+        <v>18.626709999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.180000</v>
+        <v>1384.18</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.566000</v>
+        <v>-209.566</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>67067.159865</v>
+        <v>67067.159864999994</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.629767</v>
+        <v>18.629767000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.710000</v>
+        <v>1406.71</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.170000</v>
+        <v>-253.17</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>67078.331754</v>
+        <v>67078.331753999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.632870</v>
+        <v>18.63287</v>
       </c>
       <c r="AV26" s="1">
-        <v>1432.050000</v>
+        <v>1432.05</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.558000</v>
+        <v>-312.55799999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>67089.204555</v>
+        <v>67089.204555000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.635890</v>
+        <v>18.63589</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.860000</v>
+        <v>1451.86</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.097000</v>
+        <v>-364.09699999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>67100.218235</v>
+        <v>67100.218234999993</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.638950</v>
+        <v>18.638950000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.650000</v>
+        <v>1538.65</v>
       </c>
       <c r="BG26" s="1">
-        <v>-609.330000</v>
+        <v>-609.33000000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>67111.002280</v>
+        <v>67111.002280000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>18.641945</v>
       </c>
       <c r="BK26" s="1">
-        <v>1694.800000</v>
+        <v>1694.8</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1047.940000</v>
+        <v>-1047.94</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>67121.319520</v>
+        <v>67121.319520000005</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.644811</v>
+        <v>18.644811000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1991.500000</v>
+        <v>1991.5</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1804.780000</v>
+        <v>-1804.78</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>67131.998386</v>
+        <v>67131.998386000007</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.647777</v>
+        <v>18.647777000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2382.440000</v>
+        <v>2382.44</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2673.750000</v>
+        <v>-2673.75</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>67142.914835</v>
+        <v>67142.914835000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.650810</v>
+        <v>18.65081</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2862.460000</v>
+        <v>2862.46</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3620.580000</v>
+        <v>-3620.58</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>67156.209106</v>
+        <v>67156.209105999995</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.654503</v>
+        <v>18.654502999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4263.780000</v>
+        <v>4263.78</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5876.270000</v>
+        <v>-5876.27</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>